--- a/unity/Assets/FastAssets/Table/Excel/Test.xlsx
+++ b/unity/Assets/FastAssets/Table/Excel/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13920"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -201,6 +201,48 @@
   <si>
     <t>Ignore</t>
   </si>
+  <si>
+    <t>12345678987654321</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
+    <t>test:key1</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>10,4,4</t>
+  </si>
+  <si>
+    <t>12,14</t>
+  </si>
+  <si>
+    <t>1.02,55.2</t>
+  </si>
+  <si>
+    <t>action,function</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>2,3|4,5</t>
+  </si>
+  <si>
+    <t>2,3,5|4,5,7</t>
+  </si>
+  <si>
+    <t>test:key1,test:key2</t>
+  </si>
 </sst>
 </file>
 
@@ -208,11 +250,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,22 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +301,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,7 +343,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,39 +401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,43 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,19 +482,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,31 +530,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,49 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +661,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -643,15 +701,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,26 +725,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,52 +763,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,94 +814,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -887,6 +916,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,13 +1269,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V$1:V$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
@@ -17812,6 +17844,71 @@
       <c r="XFC3" s="4"/>
       <c r="XFD3" s="4"/>
     </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+      <c r="E4">
+        <v>2.1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:N3 O3 P3 Q3 R3 S3 T3 U3 V3">

--- a/unity/Assets/FastAssets/Table/Excel/Test.xlsx
+++ b/unity/Assets/FastAssets/Table/Excel/Test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\FastEngine\unity\Assets\FastAssets\Table\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25881200-AFBE-4D70-B778-07AE9F532A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -172,6 +166,9 @@
     <t>Vector3</t>
   </si>
   <si>
+    <t>I18N</t>
+  </si>
+  <si>
     <t>ArrayByte</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
     <t>ArrayVector3</t>
   </si>
   <si>
+    <t>ArrayI18N</t>
+  </si>
+  <si>
     <t>Ignore</t>
   </si>
   <si>
@@ -242,19 +242,19 @@
   </si>
   <si>
     <t>test:key1,test:key2</t>
-  </si>
-  <si>
-    <t>I18N</t>
-  </si>
-  <si>
-    <t>ArrayI18N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,13 +275,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +444,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -330,13 +654,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,17 +915,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -646,19 +1256,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
@@ -669,7 +1279,7 @@
     <col min="16" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +1344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" s="2" customFormat="1" ht="17.25" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -799,7 +1409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="3" customFormat="1" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -828,43 +1438,43 @@
         <v>49</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>1</v>
       </c>
@@ -872,81 +1482,80 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>1.2</v>
       </c>
       <c r="E4">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:I3 K3:S3 U3:V3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:I3 K3:S3 U3:V3">
       <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,i18n,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,Arrayi18n,Ignore,Unknow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:XFD3" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,i18n,Ignore"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{D6BCE0BE-1FD6-430E-85DA-A889BD395EFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3">
       <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,I18N,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,ArrayI18N,Ignore,Unknow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3" xr:uid="{21C20660-CF63-49EA-BE95-1DB08074E5EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3">
       <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,i18n,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,ArrayI18N,Ignore,Unknow"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:XFD3">
+      <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,i18n,Ignore"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>